--- a/2c/Test case week 2.xlsx
+++ b/2c/Test case week 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AliBil\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AliBil\Documents\GitHub\Introduction-to-Python\2c\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F414DE-2A76-4DCB-BD90-753E2EFD78BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169D9963-2FCE-4D49-A130-72C84A8EF581}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="2910" windowWidth="28725" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="62">
   <si>
     <t>Test case ID</t>
   </si>
@@ -111,14 +111,116 @@
     <t>the number of attempts  change</t>
   </si>
   <si>
-    <t>enter string in input field before press button "Range is [0,100)"</t>
+    <t>TC_00006</t>
+  </si>
+  <si>
+    <t>TC_00007</t>
+  </si>
+  <si>
+    <t>TC_00008</t>
+  </si>
+  <si>
+    <t>enter string in input field after press button "Range is [0,1000)"</t>
+  </si>
+  <si>
+    <t>enter number in input field before press button "Range is [0,1000)"</t>
+  </si>
+  <si>
+    <t>enter number out of range in input field after press button "Range is [0,1000)"</t>
+  </si>
+  <si>
+    <t>enter number inrange in input field after press button "Range is [0,1000)"</t>
+  </si>
+  <si>
+    <t>enter 5000 in input field</t>
+  </si>
+  <si>
+    <t>press button "Range is [0,1000)"</t>
+  </si>
+  <si>
+    <t>Incorrect input, please try again!</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Guess was 50</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Out of range. Enter nums from 0 to 99!</t>
+  </si>
+  <si>
+    <t>Number of remaning guesses 6</t>
+  </si>
+  <si>
+    <t>Out of range. Enter nums from 0 to 999!</t>
+  </si>
+  <si>
+    <t>Guess was 500</t>
+  </si>
+  <si>
+    <t>Number of remaning guesses 9</t>
+  </si>
+  <si>
+    <t>Test Suite ID:</t>
+  </si>
+  <si>
+    <t>Name:</t>
+  </si>
+  <si>
+    <t>Test Cases for miniproject "Guess the number"</t>
+  </si>
+  <si>
+    <t>Component:</t>
+  </si>
+  <si>
+    <t>miniproject</t>
+  </si>
+  <si>
+    <t>Description:</t>
+  </si>
+  <si>
+    <t>Testing "Guess the number" game</t>
+  </si>
+  <si>
+    <t>Created by:</t>
+  </si>
+  <si>
+    <t>Version:</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>Tester:</t>
+  </si>
+  <si>
+    <t>Build:</t>
+  </si>
+  <si>
+    <t>19.09.2022</t>
+  </si>
+  <si>
+    <t>Test Data:</t>
+  </si>
+  <si>
+    <t>Alina Biletska</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="000000"/>
+  </numFmts>
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,8 +272,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,8 +314,20 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -318,11 +454,189 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -333,6 +647,45 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -342,49 +695,60 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -666,696 +1030,1114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:M98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="B47" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="37.42578125" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" customWidth="1"/>
     <col min="6" max="6" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="16"/>
+    <row r="1" spans="1:13" ht="15.75">
+      <c r="A1" s="10"/>
+      <c r="C1" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="28">
+        <v>2</v>
+      </c>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
+    <row r="2" spans="1:13" ht="31.5">
+      <c r="A2" s="10"/>
+      <c r="C2" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>48</v>
+      </c>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+    <row r="3" spans="1:13" ht="15.75">
+      <c r="A3" s="10"/>
+      <c r="C3" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>50</v>
+      </c>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+    <row r="4" spans="1:13" ht="15.75">
+      <c r="A4" s="10"/>
+      <c r="C4" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>52</v>
+      </c>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
+    <row r="5" spans="1:13" ht="15.75">
+      <c r="A5" s="10"/>
+      <c r="C5" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>61</v>
+      </c>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:13" ht="15.75">
+      <c r="A6" s="10"/>
+      <c r="C6" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A7" s="10"/>
+      <c r="C7" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="32">
+        <v>44813</v>
+      </c>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75">
+      <c r="A8" s="10"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="37"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" s="26" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A9" s="10"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="38"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75">
+      <c r="A10" s="10"/>
+      <c r="C10" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="40"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" s="26" customFormat="1" ht="15.75">
+      <c r="A11" s="10"/>
+      <c r="C11" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="35"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" ht="16.5" thickBot="1">
+      <c r="A12" s="10"/>
+      <c r="C12" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75">
+      <c r="A13" s="10"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" ht="16.5" thickBot="1">
+      <c r="A14" s="10"/>
+      <c r="C14" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="10"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="10"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A17" s="10"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" ht="21">
+      <c r="A18" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C18" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G18" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+    <row r="19" spans="1:13">
+      <c r="A19" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B19" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="11" t="s">
+      <c r="E19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="24"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="11" t="s">
+      <c r="E20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="24"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D21" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="E21" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="24"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="24"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="24"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="24"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="24"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="24"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="25"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B29" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C29" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D29" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="11" t="s">
+      <c r="E29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="24"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D30" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12" t="s">
+      <c r="E30" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="24"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="24"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="24"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="24"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="24"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="24"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="24"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="25"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B39" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C39" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D39" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="11" t="s">
+      <c r="E39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="24"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D40" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-    </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="11" t="s">
+      <c r="E40" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" spans="1:7" ht="30">
+      <c r="A41" s="24"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="E41" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="24"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="24"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="24"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="24"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="24"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="24"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="25"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B49" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C49" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D49" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="11" t="s">
+      <c r="E49" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="24"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D50" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="11" t="s">
+      <c r="E50" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="24"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
+      <c r="E51" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="24"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="24"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="24"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="24"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="24"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="24"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="24"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B59" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" s="8"/>
+      <c r="G59" s="12"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="22"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" s="8"/>
+      <c r="G60" s="12"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="22"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G61" s="12"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="22"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="12"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="22"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="12"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="22"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="12"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="22"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="12"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="22"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="12"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="22"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="12"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="22"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="14"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="B69" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C69" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D69" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="21"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="21"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="21"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="21"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="21"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="21"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="21"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="21"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="21"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="18"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="18"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="18"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="18"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="18"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="18"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="18"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="18"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="18"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="18"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
+      <c r="E69" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F69" s="8"/>
+      <c r="G69" s="12"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="22"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G70" s="12"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="22"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="12"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="22"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="12"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="22"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="12"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="22"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="12"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="22"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="12"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="22"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="12"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="22"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="12"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="22"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="12"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F79" s="8"/>
+      <c r="G79" s="16"/>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="22"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F80" s="8"/>
+      <c r="G80" s="16"/>
+    </row>
+    <row r="81" spans="1:7" ht="30">
+      <c r="A81" s="22"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G81" s="16"/>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="22"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="16"/>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="22"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="16"/>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="22"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="16"/>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="22"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="16"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="22"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="16"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="22"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="16"/>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="22"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="16"/>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F89" s="8"/>
+      <c r="G89" s="16"/>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="22"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F90" s="8"/>
+      <c r="G90" s="16"/>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="22"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E91" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" s="8"/>
+      <c r="G91" s="16"/>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="22"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G92" s="16"/>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="22"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="16"/>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="22"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="16"/>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="22"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="22"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="22"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="16"/>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="22"/>
+      <c r="B98" s="21"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="B37:B46"/>
-    <mergeCell ref="A47:A56"/>
-    <mergeCell ref="B47:B56"/>
-    <mergeCell ref="A57:A66"/>
-    <mergeCell ref="B57:B66"/>
-    <mergeCell ref="A7:A16"/>
-    <mergeCell ref="B7:B16"/>
-    <mergeCell ref="A17:A26"/>
-    <mergeCell ref="B17:B26"/>
-    <mergeCell ref="A27:A36"/>
-    <mergeCell ref="B27:B36"/>
+  <mergeCells count="17">
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="B79:B88"/>
+    <mergeCell ref="B89:B98"/>
+    <mergeCell ref="A79:A88"/>
+    <mergeCell ref="A89:A98"/>
+    <mergeCell ref="A19:A28"/>
+    <mergeCell ref="B19:B28"/>
+    <mergeCell ref="A29:A38"/>
+    <mergeCell ref="B29:B38"/>
+    <mergeCell ref="A39:A48"/>
+    <mergeCell ref="B39:B48"/>
+    <mergeCell ref="A49:A58"/>
+    <mergeCell ref="B49:B58"/>
+    <mergeCell ref="A59:A68"/>
+    <mergeCell ref="B59:B68"/>
+    <mergeCell ref="A69:A78"/>
+    <mergeCell ref="B69:B78"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>